--- a/biology/Zoologie/Hypsipetes/Hypsipetes.xlsx
+++ b/biology/Zoologie/Hypsipetes/Hypsipetes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Hypsipetes regroupe les 15 espèces de bulbuls noirs des îles de l'Océan indien.
 </t>
@@ -511,7 +523,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international (ordre phylogénique) :
 Hypsipetes crassirostris – Bulbul merle
@@ -528,12 +542,7 @@
 Hypsipetes rufigularis – Bulbul à gorge rousse
 Hypsipetes siquijorensis – Bulbul de Siquijor
 Hypsipetes everetti – Bulbul d'Everett
-Hypsipetes amaurotis – Bulbul à oreillons bruns
-Espèces déplacées dans le genre Ixos
-Bulbul de McClelland — Ixos mcclellandii (Horsfield, 1840)
-Bulbul des Nicobar — Ixos nicobariensis (Moore, 1854)
-Bulbul à tête blanche — Ixos thompsoni (Bingham, 1900)
-Bulbul verdin — Ixos virescens (Temminck, 1825)</t>
+Hypsipetes amaurotis – Bulbul à oreillons bruns</t>
         </is>
       </c>
     </row>
@@ -558,10 +567,51 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Liste des espèces</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Espèces déplacées dans le genre Ixos</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Bulbul de McClelland — Ixos mcclellandii (Horsfield, 1840)
+Bulbul des Nicobar — Ixos nicobariensis (Moore, 1854)
+Bulbul à tête blanche — Ixos thompsoni (Bingham, 1900)
+Bulbul verdin — Ixos virescens (Temminck, 1825)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Hypsipetes</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Hypsipetes</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>del Hoyo J., Elliott A. &amp; Christie D. (2005) Handbook of the Birds of the World, Volume 10, Cuckoo-shrikes to Thrushes. BirdLife International, Lynx Edicions, Barcelona, 895 p.</t>
         </is>
